--- a/Data/disease_outbreaks/Zika_Virus_outbreaks.xlsx
+++ b/Data/disease_outbreaks/Zika_Virus_outbreaks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18160" windowHeight="16060"/>
+    <workbookView xWindow="15920" yWindow="0" windowWidth="12940" windowHeight="16560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="176">
   <si>
     <t>LATITUDE</t>
   </si>
@@ -501,6 +501,54 @@
   </si>
   <si>
     <t>144 049 (2010)</t>
+  </si>
+  <si>
+    <t>2015-18-11</t>
+  </si>
+  <si>
+    <t>http://diariodelcauca.com.co/noticias/nacional/ascienden-393-los-casos-de-contagio-por-virus-zika-en-colo-170494</t>
+  </si>
+  <si>
+    <t>Norte de Santander</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44 cases confimed in Colombia (Cucuta, El Zulia, Puerto Santander, San Cayetano, Tibu, &amp; Villa Del Rosario) </t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>2015-25-11</t>
+  </si>
+  <si>
+    <t>http://www.telemetro.com/actualidad/salud/Salvador-confirma-presencia-virus-pais_0_865414161.html</t>
+  </si>
+  <si>
+    <t>1.33 million (2013)</t>
+  </si>
+  <si>
+    <t>Usultan</t>
+  </si>
+  <si>
+    <t>366 000</t>
+  </si>
+  <si>
+    <t>Southeast of region</t>
+  </si>
+  <si>
+    <t>San Salvador</t>
+  </si>
+  <si>
+    <t>Tonacatepeque</t>
+  </si>
+  <si>
+    <t>90 896 (2007)</t>
+  </si>
+  <si>
+    <t>33-year old (first three cases in El Salvador)</t>
+  </si>
+  <si>
+    <t>33 and 28-year old woman (first three cases in El Salvador)</t>
   </si>
 </sst>
 </file>
@@ -508,8 +556,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -645,8 +693,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="129">
+  <cellStyleXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -805,13 +867,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -823,7 +885,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -835,11 +897,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="129">
+  <cellStyles count="143">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -904,6 +966,13 @@
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -968,6 +1037,13 @@
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1260,10 +1336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K45"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2797,6 +2873,96 @@
       </c>
       <c r="K45" s="2" t="s">
         <v>142</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="2">
+        <v>13.791</v>
+      </c>
+      <c r="C48" s="3">
+        <v>-89.286000000000001</v>
+      </c>
+      <c r="D48" s="4">
+        <v>603</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/Data/disease_outbreaks/Zika_Virus_outbreaks.xlsx
+++ b/Data/disease_outbreaks/Zika_Virus_outbreaks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15920" yWindow="0" windowWidth="12940" windowHeight="16560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="191">
   <si>
     <t>LATITUDE</t>
   </si>
@@ -549,6 +549,51 @@
   </si>
   <si>
     <t>33 and 28-year old woman (first three cases in El Salvador)</t>
+  </si>
+  <si>
+    <t>Mexixo</t>
+  </si>
+  <si>
+    <t>Chiapas</t>
+  </si>
+  <si>
+    <t>2015-26-11</t>
+  </si>
+  <si>
+    <t>First 2 autochthonous cases of Zika in Mexico</t>
+  </si>
+  <si>
+    <t>http://eleconomista.com.mx/sociedad/2015/11/26/confirman-dos-casos-autoctonos-virus-zika-mexico</t>
+  </si>
+  <si>
+    <t>3.406 million (2010)</t>
+  </si>
+  <si>
+    <t>4.653 million (2010)</t>
+  </si>
+  <si>
+    <t>Nuevo Leon</t>
+  </si>
+  <si>
+    <t>Paraguay</t>
+  </si>
+  <si>
+    <t>First 6 cases in country</t>
+  </si>
+  <si>
+    <t>http://www.ultimahora.com/salud-confirma-seis-primeros-casos-del-virus-del-zika-paraguay-n948670.html</t>
+  </si>
+  <si>
+    <t>2015-27-11</t>
+  </si>
+  <si>
+    <t>Amambay</t>
+  </si>
+  <si>
+    <t>Pedro Juan Caballero</t>
+  </si>
+  <si>
+    <t>115 583 (2016)</t>
   </si>
 </sst>
 </file>
@@ -693,8 +738,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="143">
+  <cellStyleXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -901,7 +952,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="143">
+  <cellStyles count="149">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -973,6 +1024,9 @@
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1044,6 +1098,9 @@
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1336,10 +1393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2879,6 +2936,12 @@
       <c r="A46" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="B46" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="D46" s="4" t="s">
         <v>103</v>
       </c>
@@ -2908,6 +2971,15 @@
       <c r="A47" s="1" t="s">
         <v>164</v>
       </c>
+      <c r="B47" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>103</v>
+      </c>
       <c r="E47" s="1" t="s">
         <v>169</v>
       </c>
@@ -2963,6 +3035,111 @@
       </c>
       <c r="K48" s="2" t="s">
         <v>166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B51" s="2">
+        <v>-22.555</v>
+      </c>
+      <c r="C51" s="3">
+        <v>-55.764000000000003</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J51" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/Data/disease_outbreaks/Zika_Virus_outbreaks.xlsx
+++ b/Data/disease_outbreaks/Zika_Virus_outbreaks.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="208">
   <si>
     <t>LATITUDE</t>
   </si>
@@ -594,6 +594,57 @@
   </si>
   <si>
     <t>115 583 (2016)</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>http://www.prensa.com/sociedad/Detectan-casos-virus-zika-Panama_0_4360814004.html</t>
+  </si>
+  <si>
+    <t>Kuna Yala</t>
+  </si>
+  <si>
+    <t>Aligandi</t>
+  </si>
+  <si>
+    <t>1842 (2008)</t>
+  </si>
+  <si>
+    <t>First 3 cases in the country (20-40 years in age)</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Zacapa</t>
+  </si>
+  <si>
+    <t>Escuintla</t>
+  </si>
+  <si>
+    <t>22 cases</t>
+  </si>
+  <si>
+    <t>2015-24-11</t>
+  </si>
+  <si>
+    <t>http://informaciontotal.com.mx/2015-12-09-ea732713/guatemala-confirma-29-casos-de-virus-del-zika/</t>
+  </si>
+  <si>
+    <t>Pnanama</t>
+  </si>
+  <si>
+    <t>Guna Yala</t>
+  </si>
+  <si>
+    <t>1 new case in country bringing total to 4</t>
+  </si>
+  <si>
+    <t>http://laestrella.com.pa/panama/nacional/minsa-confirma-nuevo-caso-virus-zika-panama/23909238</t>
+  </si>
+  <si>
+    <t>15 541 (2000)</t>
   </si>
 </sst>
 </file>
@@ -738,8 +789,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="149">
+  <cellStyleXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -952,7 +1005,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="149">
+  <cellStyles count="151">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1027,6 +1080,7 @@
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1101,6 +1155,7 @@
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1393,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K51"/>
+  <dimension ref="A1:K55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3140,6 +3195,146 @@
       </c>
       <c r="K51" s="2" t="s">
         <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B52" s="2">
+        <v>9.1340000000000003</v>
+      </c>
+      <c r="C52" s="3">
+        <v>-77.950999999999993</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="H52" s="10">
+        <v>42075</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B53" s="2">
+        <v>15.036</v>
+      </c>
+      <c r="C53" s="3">
+        <v>-89.768000000000001</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" s="2">
+        <v>14.194000000000001</v>
+      </c>
+      <c r="C54" s="3">
+        <v>-91.293999999999997</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B55" s="2">
+        <v>9.06</v>
+      </c>
+      <c r="C55" s="3">
+        <v>-78.881</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H55" s="10">
+        <v>42320</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/Data/disease_outbreaks/Zika_Virus_outbreaks.xlsx
+++ b/Data/disease_outbreaks/Zika_Virus_outbreaks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="18360" yWindow="0" windowWidth="13840" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="267">
   <si>
     <t>LATITUDE</t>
   </si>
@@ -632,9 +632,6 @@
     <t>http://informaciontotal.com.mx/2015-12-09-ea732713/guatemala-confirma-29-casos-de-virus-del-zika/</t>
   </si>
   <si>
-    <t>Pnanama</t>
-  </si>
-  <si>
     <t>Guna Yala</t>
   </si>
   <si>
@@ -645,6 +642,186 @@
   </si>
   <si>
     <t>15 541 (2000)</t>
+  </si>
+  <si>
+    <t>Monteria</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>173 cases (but this is assumed to be an underreported number)</t>
+  </si>
+  <si>
+    <t>http://www.eluniversal.com.co/regional/cordoba/monteria-reporta-173-casos-del-virus-zika-pero-hay-subregistro-213694</t>
+  </si>
+  <si>
+    <t>288 192 (2005)</t>
+  </si>
+  <si>
+    <t>2015-17-12</t>
+  </si>
+  <si>
+    <t>http://www.who.int/csr/don/22-december-2015-zika-panama/en/</t>
+  </si>
+  <si>
+    <t>4 cases between these two islands</t>
+  </si>
+  <si>
+    <t>Ogobsugun island</t>
+  </si>
+  <si>
+    <t>2 802 (2008)</t>
+  </si>
+  <si>
+    <t>2015-29-12</t>
+  </si>
+  <si>
+    <t>2 new cases</t>
+  </si>
+  <si>
+    <t>http://www.telemetro.com/nacionales/registran-Guna-Yala-declarado-epdimeiologica_0_875612998.html</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>3.548 million (2014)</t>
+  </si>
+  <si>
+    <t>2015-18-12</t>
+  </si>
+  <si>
+    <t>1 locally acquired case</t>
+  </si>
+  <si>
+    <t>http://promedmail.org/direct.php?id=20151231.3902686</t>
+  </si>
+  <si>
+    <t>Caribbean</t>
+  </si>
+  <si>
+    <t>386 486 (2013)</t>
+  </si>
+  <si>
+    <t>Case numbers not provided</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>2015-25-12</t>
+  </si>
+  <si>
+    <t>2015-26-12</t>
+  </si>
+  <si>
+    <t>Pariba</t>
+  </si>
+  <si>
+    <t>Sergipe</t>
+  </si>
+  <si>
+    <t>Update: 129 cases in state (state total: no specific cities provided)</t>
+  </si>
+  <si>
+    <t>Update: 271 cases in state (state total: no specific cities provided)</t>
+  </si>
+  <si>
+    <t>Update: 134 cases in state (state total: no specific cities provided)</t>
+  </si>
+  <si>
+    <t>Update: 476 cases in state (state total: no specific cities provided)</t>
+  </si>
+  <si>
+    <t>Update: 1153 cases in state (state total: no specific cities provided)</t>
+  </si>
+  <si>
+    <t>Update: 154 cases in state (state total: no specific cities provided)</t>
+  </si>
+  <si>
+    <t>Update: 146 cases in state (state total: no specific cities provided)</t>
+  </si>
+  <si>
+    <t>Update: 94 cases in state (state total: no specific cities provided)</t>
+  </si>
+  <si>
+    <t>Update: 51 cases in state (state total: no specific cities provided)</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Choluteca</t>
+  </si>
+  <si>
+    <t>2015-23-12</t>
+  </si>
+  <si>
+    <t>First 2 cases in Honduras</t>
+  </si>
+  <si>
+    <t>http://www.elnuevodiario.com.ni/internacionales/centroamerica/379886-autoridades-sanitarias-hondurenas-confirman-dos/</t>
+  </si>
+  <si>
+    <t>Francisco Morazan</t>
+  </si>
+  <si>
+    <t>2015-21-12</t>
+  </si>
+  <si>
+    <t>3rd case in Honduras</t>
+  </si>
+  <si>
+    <t>http://www.laprensa.hn/honduras/913317-410/salud-confirma-tres-nuevos-casos-de-zika-en-honduras</t>
+  </si>
+  <si>
+    <t>40 cases confirmed</t>
+  </si>
+  <si>
+    <t>http://tiempo.hn/confirman-40-casos-de-zika-en-honduras/</t>
+  </si>
+  <si>
+    <t>Valle, Choluteca, El Paraiso</t>
+  </si>
+  <si>
+    <t>Ustutpu Island</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Matoury</t>
+  </si>
+  <si>
+    <t>Remire-Montjoly</t>
+  </si>
+  <si>
+    <t>Kourou</t>
+  </si>
+  <si>
+    <t>Cayenne</t>
+  </si>
+  <si>
+    <t>2015-31-12</t>
+  </si>
+  <si>
+    <t>14 total cases in country, 10 are imported, 4 are native cases</t>
+  </si>
+  <si>
+    <t>http://la1ere.francetvinfo.fr/guyane/2015/12/31/trois-nouveaux-cas-de-zika-en-guyane-318797.html</t>
+  </si>
+  <si>
+    <t>Saint-Laurent du Maroni</t>
+  </si>
+  <si>
+    <t>Eastern region of Island</t>
+  </si>
+  <si>
+    <t>First case in Puerto Rico</t>
+  </si>
+  <si>
+    <t>http://expreso.press/2015/12/31/puerto-rico-registra-primer-caso-de-virus-zika/</t>
   </si>
 </sst>
 </file>
@@ -694,7 +871,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -779,6 +956,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -789,7 +972,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="151">
+  <cellStyleXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -941,8 +1124,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1004,8 +1213,11 @@
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="151">
+  <cellStyles count="177">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1081,6 +1293,19 @@
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1156,6 +1381,19 @@
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1448,10 +1686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K55"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3304,7 +3542,7 @@
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B55" s="2">
         <v>9.06</v>
@@ -3316,13 +3554,13 @@
         <v>103</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>103</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H55" s="10">
         <v>42320</v>
@@ -3331,10 +3569,850 @@
         <v>7</v>
       </c>
       <c r="J55" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="K55" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="K55" s="2" t="s">
-        <v>206</v>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B56" s="2">
+        <v>8.5960000000000001</v>
+      </c>
+      <c r="C56" s="3">
+        <v>-76.248999999999995</v>
+      </c>
+      <c r="D56" s="4">
+        <v>49</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="H56" s="10">
+        <v>42350</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B57" s="2">
+        <v>9.1340000000000003</v>
+      </c>
+      <c r="C57" s="3">
+        <v>-77.941000000000003</v>
+      </c>
+      <c r="D57" s="4">
+        <v>3</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B58" s="2">
+        <v>9.5109999999999992</v>
+      </c>
+      <c r="C58" s="3">
+        <v>-79.003</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B59" s="2">
+        <v>9.1340000000000003</v>
+      </c>
+      <c r="C59" s="3">
+        <v>-77.941000000000003</v>
+      </c>
+      <c r="D59" s="4">
+        <v>3</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="I64" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="I65" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="I66" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="I67" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="I68" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="K68" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="I69" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="K69" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="I70" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="K70" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B71" s="2">
+        <v>13.301</v>
+      </c>
+      <c r="C71" s="3">
+        <v>-87.241</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="K71" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="K72" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="K73" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B74" s="2">
+        <v>9.1340000000000003</v>
+      </c>
+      <c r="C74" s="3">
+        <v>-77.941000000000003</v>
+      </c>
+      <c r="D74" s="4">
+        <v>3</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="K74" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B75" s="2">
+        <v>4.8339999999999996</v>
+      </c>
+      <c r="C75" s="3">
+        <v>-52.417999999999999</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="K75" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B76" s="2">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="C76" s="3">
+        <v>-52.350999999999999</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B77" s="2">
+        <v>5.165</v>
+      </c>
+      <c r="C77" s="3">
+        <v>-52.686</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="K77" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="K78" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
